--- a/tabular/eve/circoviridae/ecv-cyclo-side-data.xlsx
+++ b/tabular/eve/circoviridae/ecv-cyclo-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/circoviridae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1FDAB3-4FB6-0C42-AB52-C3E6824E204B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB46E478-B340-134B-892D-9A5FA90AAE66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{E0D69B75-C471-8944-8C1E-E7D1DF7D28CA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Invertebrates</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>CCACATCTGCAAGGCTTTTGCAACTTGGAAAAACCAATTTGTTTCAAGAAAATCAAAGAACTTCTCTATCACACTATCCATATTGAAAAGGCAAACGGATCCGACGAACAAAACCAAACATACTGTAAGAAAAGCAACATGTTCTTTGAAAAGGGCGTGCCTCAAAATCAAGGACGAAGGAACGACCTCCAAGCTGTGGTGGACACAATTTCTACCGGTGAAAGACACATCGAAGCTATCGCCTCGAAACATCCAACGACTTTTATCAAATACCATCGAGGTATCATCGCATACCTCAGCATCACTAACCCCATCCCACCCCGTTCATACAAAACGGATGTCTACTATTACTGGGGACCTCCAGGATCTGGTAAATCACGACGAGCCCTAGAAGAAGCTACCGCTACAGCCCCCGACTCCATCTACTACAAACCACGCGGAGACTGGTGGGACGGATACCAACAACAAACTTGCGTCATCATCGACGACTTCTACGGATGGATAAAGTACGACGAACTCCTAAAAATATGCGACCGCTACCCCTACAAGGTTCCAATAAAAGGAGGCTACGAAGAATTCACAACACGTAAAATATGGATAACAAGTAACATTGACACAGACAAATTATACAAATTTAAAAACTTTATTCCAAACGCTTTTGAAAGACAAATTACAAATAAAATATAT</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>Pseudomyrmex_gracilis_10595</t>
   </si>
 </sst>
 </file>
@@ -501,129 +507,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55222846-7D75-324E-B9C4-82331470BA0D}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S2"/>
+      <selection activeCell="C2" sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
         <v>1737</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>10595</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>11281</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>3</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>687</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>33</v>
       </c>
     </row>
